--- a/VBA_example/単位修得状況.xlsx
+++ b/VBA_example/単位修得状況.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sin Shimozono\Dropbox\VBA_excample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sin Shimozono\Dropbox\VBA_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C804394-7750-47B4-AFDD-65BFAD0EBF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15DBEF9-4A09-4561-B2F2-F55F17712830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LxVkp/CYok8tRvkKVLsFWNB/nJ/bscOuEAEXJrKYy9oSIgvpsyTn/5DFFD542WtDbvBHsGM1ik0M7cocUafn8A==" workbookSaltValue="MuXpY/7iuD4eZ4uTUgVkSQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="4410" windowWidth="20250" windowHeight="14460" xr2:uid="{E868FA00-C372-4C8E-863F-2E67C7ABCF6A}"/>
+    <workbookView xWindow="11295" yWindow="5700" windowWidth="16110" windowHeight="14805" xr2:uid="{E868FA00-C372-4C8E-863F-2E67C7ABCF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="単位修得状況" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単位修得状況!$B$4:$J$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>学生番号</t>
     <rPh sb="0" eb="4">
@@ -69,40 +72,44 @@
     <t>221X1103</t>
   </si>
   <si>
-    <t>221X2021</t>
-  </si>
-  <si>
     <t>221X1077</t>
-  </si>
-  <si>
-    <t>2020/4/1</t>
-  </si>
-  <si>
-    <t>2020/10/1</t>
-  </si>
-  <si>
-    <t>2021/4/1</t>
-  </si>
-  <si>
-    <t>2021/10/1</t>
-  </si>
-  <si>
-    <t>2022/4/1</t>
-  </si>
-  <si>
-    <t>2023/4/1</t>
-  </si>
-  <si>
-    <t>2023/10/1</t>
-  </si>
-  <si>
-    <t>2022/10/1</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>220X1156</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>219X1107</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前期</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修得単位数</t>
+    <rPh sb="0" eb="2">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タンイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>221X2021</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,30 +135,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -211,25 +210,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +270,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,174 +604,246 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDEAF21-29A6-4FF1-9E71-9DE488BB512D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B3:J7"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="3" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="2" spans="2:10">
+      <c r="C2" s="10">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
+        <v>2023</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+    <row r="9" spans="2:10">
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="4">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>20</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="J9" s="4">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B15">
-    <sortCondition ref="B4:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J9">
+    <sortCondition ref="B4"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
